--- a/sales/Raw/Seoul.xlsx
+++ b/sales/Raw/Seoul.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\_A\__Python\quantic-sandbox\sales\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Instructional Design Drive\Certificates\Learn to Code with ChatGPT\CODEWAI\CODEWAI 1.07\Code\Sales\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55408B90-D6CA-4665-913A-CE8E253B43F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22455" yWindow="19110" windowWidth="27765" windowHeight="12180"/>
+    <workbookView xWindow="22455" yWindow="19110" windowWidth="27765" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +25,16 @@
     <t>Product</t>
   </si>
   <si>
+    <t>Sugar Pops</t>
+  </si>
+  <si>
+    <t>Dino Bites</t>
+  </si>
+  <si>
+    <t>Tasty Flakes</t>
+  </si>
+  <si>
     <t>Sold</t>
-  </si>
-  <si>
-    <t>Sugar Pops</t>
-  </si>
-  <si>
-    <t>Dino Bites</t>
-  </si>
-  <si>
-    <t>Tasty Flakes</t>
   </si>
   <si>
     <t>Bran Bombs</t>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,9 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,56 +388,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>38</v>
       </c>
     </row>
